--- a/GMR_Automation/src/main/java/com/textdata/GMR_Automation.xlsx
+++ b/GMR_Automation/src/main/java/com/textdata/GMR_Automation.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13785" windowHeight="6645" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13785" windowHeight="6645" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Meeting" sheetId="3" r:id="rId1"/>
     <sheet name="Incident" sheetId="4" r:id="rId2"/>
     <sheet name="EHSObservation" sheetId="6" r:id="rId3"/>
+    <sheet name="NearMiss" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <oleSize ref="A1"/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="194">
   <si>
     <t>demogaurav007</t>
   </si>
@@ -506,6 +507,99 @@
   </si>
   <si>
     <t>Un-Safe Condition</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>SV Logistics</t>
+  </si>
+  <si>
+    <t>Test Location</t>
+  </si>
+  <si>
+    <t>Severity</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Test Desc for AT For Near Miss Using script</t>
+  </si>
+  <si>
+    <t>mahesh</t>
+  </si>
+  <si>
+    <t>SubLocation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PlantEHSHeadUsername </t>
+  </si>
+  <si>
+    <t>PlantEHSHeadPassword</t>
+  </si>
+  <si>
+    <t>GWEL/NM/2020</t>
+  </si>
+  <si>
+    <t>searchemployeename</t>
+  </si>
+  <si>
+    <t>InvestigationTeamUsername</t>
+  </si>
+  <si>
+    <t>InvestigationTeamPassword</t>
+  </si>
+  <si>
+    <t>Investigation Completed &amp; Send for EHS Head Review</t>
+  </si>
+  <si>
+    <t>InvestigationTeamAuthorizationAction</t>
+  </si>
+  <si>
+    <t>InvestigationTeamComment</t>
+  </si>
+  <si>
+    <t>Send for O&amp;M Review</t>
+  </si>
+  <si>
+    <t>PlantEHSHeadAuthorizationaction</t>
+  </si>
+  <si>
+    <t>PlantEHSHeadComment</t>
+  </si>
+  <si>
+    <t>ReviewOMHeadUsername</t>
+  </si>
+  <si>
+    <t>ReviewOMHeadPassword</t>
+  </si>
+  <si>
+    <t>ravi</t>
+  </si>
+  <si>
+    <t>ReviewOMHeadAuthorizationAction</t>
+  </si>
+  <si>
+    <t>Send for Plant Head review</t>
+  </si>
+  <si>
+    <t>ReviewOMHeadComment</t>
+  </si>
+  <si>
+    <t>ankur</t>
+  </si>
+  <si>
+    <t>PlantHEADUsername</t>
+  </si>
+  <si>
+    <t>PlantHEADPassword</t>
+  </si>
+  <si>
+    <t>PlantHEADAuthorizationaction</t>
+  </si>
+  <si>
+    <t>PlantHEADComment</t>
   </si>
 </sst>
 </file>
@@ -1464,8 +1558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="Z8" sqref="Z8"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1703,4 +1797,251 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AG2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="69.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="73.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="81.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="70.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="27" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="49.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="34" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="19.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G2" t="s">
+        <v>167</v>
+      </c>
+      <c r="H2" t="s">
+        <v>168</v>
+      </c>
+      <c r="I2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N2" t="s">
+        <v>169</v>
+      </c>
+      <c r="O2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>91</v>
+      </c>
+      <c r="R2" t="s">
+        <v>91</v>
+      </c>
+      <c r="S2" t="s">
+        <v>140</v>
+      </c>
+      <c r="T2" t="s">
+        <v>129</v>
+      </c>
+      <c r="U2" t="s">
+        <v>1</v>
+      </c>
+      <c r="V2" t="s">
+        <v>177</v>
+      </c>
+      <c r="W2" t="s">
+        <v>177</v>
+      </c>
+      <c r="X2" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>185</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>187</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/GMR_Automation/src/main/java/com/textdata/GMR_Automation.xlsx
+++ b/GMR_Automation/src/main/java/com/textdata/GMR_Automation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13785" windowHeight="6645" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13785" windowHeight="6645" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Meeting" sheetId="3" r:id="rId1"/>
@@ -13,12 +13,11 @@
     <sheet name="NearMiss" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="179">
   <si>
     <t>demogaurav007</t>
   </si>
@@ -155,33 +154,12 @@
     <t>Username</t>
   </si>
   <si>
-    <t xml:space="preserve">SubUnit </t>
-  </si>
-  <si>
-    <t>ele</t>
-  </si>
-  <si>
-    <t>Department</t>
-  </si>
-  <si>
-    <t>Contractor</t>
-  </si>
-  <si>
-    <t>contr</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
     <t>Test</t>
   </si>
   <si>
     <t>Shift</t>
   </si>
   <si>
-    <t>General</t>
-  </si>
-  <si>
     <t>ExactLocation</t>
   </si>
   <si>
@@ -248,9 +226,6 @@
     <t>Clickonthat</t>
   </si>
   <si>
-    <t>CHAU/INC/2020</t>
-  </si>
-  <si>
     <t>TypeofInjury</t>
   </si>
   <si>
@@ -266,54 +241,15 @@
     <t>AuthorizationAction</t>
   </si>
   <si>
-    <t>Send for further Review</t>
-  </si>
-  <si>
-    <t>Test comment Incident</t>
-  </si>
-  <si>
-    <t>DepartmentHeadUsername</t>
-  </si>
-  <si>
-    <t>DepartmentHeadPassword</t>
-  </si>
-  <si>
-    <t>demomathew</t>
-  </si>
-  <si>
-    <t>UnitMRUsername</t>
-  </si>
-  <si>
-    <t>UnitMRPassword</t>
-  </si>
-  <si>
-    <t>demodharmesh</t>
-  </si>
-  <si>
-    <t>AuthorizationActionUnitMR</t>
-  </si>
-  <si>
     <t>Send for investigation</t>
   </si>
   <si>
-    <t>CommentUnitMR</t>
-  </si>
-  <si>
     <t>searchemployee</t>
   </si>
   <si>
-    <t>operatorInvestigationUsername</t>
-  </si>
-  <si>
-    <t>operatorInvestigationPassword</t>
-  </si>
-  <si>
     <t>Actiontobetaken</t>
   </si>
   <si>
-    <t>Near Miss capa Test</t>
-  </si>
-  <si>
     <t>Responsibility</t>
   </si>
   <si>
@@ -323,66 +259,6 @@
     <t>Low</t>
   </si>
   <si>
-    <t>AuthorizationActionoperatorInvestigation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Investigation Completed &amp; Sent for Cluster EHS Head Review </t>
-  </si>
-  <si>
-    <t>CommentoperatorInvestigation</t>
-  </si>
-  <si>
-    <t>ClusterEHSHeadUsername</t>
-  </si>
-  <si>
-    <t>ClusterEHSHeadPassword</t>
-  </si>
-  <si>
-    <t>demoakash</t>
-  </si>
-  <si>
-    <t>AuthorizationActionClusterEHSHead</t>
-  </si>
-  <si>
-    <t>Send for Unit MR Review</t>
-  </si>
-  <si>
-    <t>ClusterEHSHeadComment</t>
-  </si>
-  <si>
-    <t>InvstegationUnitMRUsername</t>
-  </si>
-  <si>
-    <t>InvstegationUnitMRPassword</t>
-  </si>
-  <si>
-    <t>Send for Unit Head Review</t>
-  </si>
-  <si>
-    <t>AuthorizationActionInvstegationUnitMR</t>
-  </si>
-  <si>
-    <t>InvstegationUnitMRComment</t>
-  </si>
-  <si>
-    <t>InvstegationUnitHEADUsername</t>
-  </si>
-  <si>
-    <t>InvstegationUnitHEADPassword</t>
-  </si>
-  <si>
-    <t>demomahesh</t>
-  </si>
-  <si>
-    <t>AuthorizationActionInvstegationUnitHEAD</t>
-  </si>
-  <si>
-    <t>Approve Investigation</t>
-  </si>
-  <si>
-    <t>InvstegationUnitHEADComment</t>
-  </si>
-  <si>
     <t>DepartmentOP</t>
   </si>
   <si>
@@ -600,6 +476,84 @@
   </si>
   <si>
     <t>PlantHEADComment</t>
+  </si>
+  <si>
+    <t>B Shift- 14:00 to 22:00</t>
+  </si>
+  <si>
+    <t>HODUsername</t>
+  </si>
+  <si>
+    <t>HODPassword</t>
+  </si>
+  <si>
+    <t>mathew</t>
+  </si>
+  <si>
+    <t>GWEL/INC/2020</t>
+  </si>
+  <si>
+    <t>Send for futher review</t>
+  </si>
+  <si>
+    <t>PlantEHSHeadUsername</t>
+  </si>
+  <si>
+    <t>AuthorizationActionPlantEHSHead</t>
+  </si>
+  <si>
+    <t>Send For Investigation</t>
+  </si>
+  <si>
+    <t>CommentPlantEHSHead</t>
+  </si>
+  <si>
+    <t>AuthorizationActionInvestigationTeam</t>
+  </si>
+  <si>
+    <t>CommentInvestigationTeam</t>
+  </si>
+  <si>
+    <t>Investigation completed &amp; send for EHS Head review</t>
+  </si>
+  <si>
+    <t>PlantEHSHUsername</t>
+  </si>
+  <si>
+    <t>PlantEHSHPassword</t>
+  </si>
+  <si>
+    <t>AuthorizationActionPlantEHSH</t>
+  </si>
+  <si>
+    <t>CommentPlantEHSH</t>
+  </si>
+  <si>
+    <t>InvstegationOMHeadUsername</t>
+  </si>
+  <si>
+    <t>InvstegationOMHeadPassword</t>
+  </si>
+  <si>
+    <t>AuthorizationActionInvstegationOMHead</t>
+  </si>
+  <si>
+    <t>InvstegationOMHeadComment</t>
+  </si>
+  <si>
+    <t>InvstegationPlantHEADUsername</t>
+  </si>
+  <si>
+    <t>InvstegationPlantHEADPassword</t>
+  </si>
+  <si>
+    <t>AuthorizationActionInvstegationPlantHEAD</t>
+  </si>
+  <si>
+    <t>InvstegationPlantHEADComment</t>
+  </si>
+  <si>
+    <t>capa Test</t>
   </si>
 </sst>
 </file>
@@ -1190,61 +1144,61 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX2"/>
+  <dimension ref="A1:AW2"/>
   <sheetViews>
-    <sheetView topLeftCell="AT1" workbookViewId="0">
-      <selection activeCell="AU1" sqref="AU1:AX2"/>
+    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
+      <selection activeCell="AW1" sqref="AW1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="69.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="73.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="81.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="70.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="21.7109375" customWidth="1"/>
-    <col min="28" max="28" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="26" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="30" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="38" width="56.5703125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="24" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="43" max="44" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="69.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="73.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="81.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="70.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="23" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="32" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="30" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="56.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="24" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="45" max="47" width="29.7109375" customWidth="1"/>
+    <col min="48" max="48" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>44</v>
       </c>
@@ -1252,300 +1206,294 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="P1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="AE1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="R1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="S1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="W1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="X1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV1" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AW1" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>88</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AT1" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AU1" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="AV1" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="AW1" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="AX1" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>123</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>153</v>
       </c>
       <c r="G2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="I2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="J2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M2" t="s">
         <v>59</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
         <v>61</v>
       </c>
-      <c r="L2" t="s">
-        <v>63</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" t="s">
         <v>66</v>
       </c>
-      <c r="O2" t="s">
-        <v>68</v>
-      </c>
-      <c r="P2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>25</v>
-      </c>
       <c r="R2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="S2" t="s">
-        <v>74</v>
+        <v>156</v>
       </c>
       <c r="T2" t="s">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="U2" t="s">
+        <v>157</v>
+      </c>
+      <c r="V2" t="s">
+        <v>158</v>
+      </c>
+      <c r="W2" t="s">
+        <v>158</v>
+      </c>
+      <c r="X2" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y2" t="s">
         <v>1</v>
       </c>
-      <c r="V2" t="s">
-        <v>76</v>
-      </c>
-      <c r="W2" t="s">
-        <v>78</v>
-      </c>
-      <c r="X2" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>82</v>
-      </c>
       <c r="Z2" t="s">
-        <v>83</v>
+        <v>161</v>
       </c>
       <c r="AA2" t="s">
-        <v>89</v>
+        <v>161</v>
       </c>
       <c r="AB2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD2" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>91</v>
-      </c>
       <c r="AE2" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="AF2" t="s">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="AG2" t="s">
+        <v>165</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>165</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>1</v>
       </c>
-      <c r="AH2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>100</v>
-      </c>
       <c r="AK2" t="s">
-        <v>102</v>
+        <v>139</v>
       </c>
       <c r="AL2" t="s">
-        <v>102</v>
+        <v>139</v>
       </c>
       <c r="AM2" t="s">
-        <v>106</v>
+        <v>144</v>
       </c>
       <c r="AN2" t="s">
         <v>1</v>
       </c>
       <c r="AO2" t="s">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="AP2" t="s">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="AQ2" t="s">
-        <v>89</v>
+        <v>148</v>
       </c>
       <c r="AR2" t="s">
         <v>1</v>
       </c>
       <c r="AS2" t="s">
-        <v>112</v>
+        <v>178</v>
       </c>
       <c r="AT2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="AU2" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="AV2" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="AW2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>119</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1605,129 +1553,129 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>134</v>
+        <v>93</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>123</v>
+        <v>82</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>124</v>
+        <v>83</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>122</v>
+        <v>81</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>145</v>
+        <v>104</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>147</v>
+        <v>106</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>149</v>
+        <v>108</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>151</v>
+        <v>110</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>153</v>
+        <v>112</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>157</v>
+        <v>116</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>158</v>
+        <v>117</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>159</v>
+        <v>118</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>161</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>131</v>
+        <v>90</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="F2" t="s">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="G2" t="s">
-        <v>162</v>
+        <v>121</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="I2" t="s">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="K2" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="L2" t="s">
         <v>24</v>
@@ -1736,61 +1684,61 @@
         <v>25</v>
       </c>
       <c r="N2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="O2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="P2" t="s">
-        <v>128</v>
+        <v>87</v>
       </c>
       <c r="Q2" t="s">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="R2" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="S2" t="s">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="T2" t="s">
         <v>1</v>
       </c>
       <c r="U2" t="s">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="V2" t="s">
-        <v>146</v>
+        <v>105</v>
       </c>
       <c r="W2" t="s">
-        <v>148</v>
+        <v>107</v>
       </c>
       <c r="X2" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="Y2" t="s">
         <v>1</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>152</v>
+        <v>111</v>
       </c>
       <c r="AA2" t="s">
-        <v>154</v>
+        <v>113</v>
       </c>
       <c r="AB2" t="s">
-        <v>155</v>
+        <v>114</v>
       </c>
       <c r="AC2" t="s">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="AD2" t="s">
         <v>1</v>
       </c>
       <c r="AE2" t="s">
-        <v>160</v>
+        <v>119</v>
       </c>
       <c r="AF2" t="s">
-        <v>148</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1803,7 +1751,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1846,126 +1794,126 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>163</v>
+        <v>122</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>134</v>
+        <v>93</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>170</v>
+        <v>129</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>166</v>
+        <v>125</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>171</v>
+        <v>130</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>172</v>
+        <v>131</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>30</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>174</v>
+        <v>133</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>175</v>
+        <v>134</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>176</v>
+        <v>135</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>178</v>
+        <v>137</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>179</v>
+        <v>138</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>181</v>
+        <v>140</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>182</v>
+        <v>141</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>183</v>
+        <v>142</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>184</v>
+        <v>143</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>186</v>
+        <v>145</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>190</v>
+        <v>149</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>192</v>
+        <v>151</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>193</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="D2" t="s">
-        <v>164</v>
+        <v>123</v>
       </c>
       <c r="E2" t="s">
-        <v>131</v>
+        <v>90</v>
       </c>
       <c r="F2" t="s">
-        <v>165</v>
+        <v>124</v>
       </c>
       <c r="G2" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="H2" t="s">
-        <v>168</v>
+        <v>127</v>
       </c>
       <c r="I2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="J2" t="s">
         <v>24</v>
@@ -1974,61 +1922,61 @@
         <v>25</v>
       </c>
       <c r="L2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="M2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="N2" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="O2" t="s">
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>173</v>
+        <v>132</v>
       </c>
       <c r="Q2" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="R2" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="S2" t="s">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="T2" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="U2" t="s">
         <v>1</v>
       </c>
       <c r="V2" t="s">
-        <v>177</v>
+        <v>136</v>
       </c>
       <c r="W2" t="s">
-        <v>177</v>
+        <v>136</v>
       </c>
       <c r="X2" t="s">
-        <v>180</v>
+        <v>139</v>
       </c>
       <c r="Y2" t="s">
-        <v>180</v>
+        <v>139</v>
       </c>
       <c r="Z2" t="s">
-        <v>185</v>
+        <v>144</v>
       </c>
       <c r="AA2" t="s">
         <v>1</v>
       </c>
       <c r="AB2" t="s">
-        <v>187</v>
+        <v>146</v>
       </c>
       <c r="AC2" t="s">
-        <v>187</v>
+        <v>146</v>
       </c>
       <c r="AD2" t="s">
-        <v>189</v>
+        <v>148</v>
       </c>
       <c r="AE2" t="s">
         <v>1</v>

--- a/GMR_Automation/src/main/java/com/textdata/GMR_Automation.xlsx
+++ b/GMR_Automation/src/main/java/com/textdata/GMR_Automation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13785" windowHeight="6645" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13785" windowHeight="6645"/>
   </bookViews>
   <sheets>
     <sheet name="Meeting" sheetId="3" r:id="rId1"/>
@@ -17,10 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="179">
-  <si>
-    <t>demogaurav007</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="173">
   <si>
     <t>admin</t>
   </si>
@@ -34,51 +31,18 @@
     <t>MeetingType</t>
   </si>
   <si>
-    <t>EHS Committee Meeting</t>
-  </si>
-  <si>
     <t>MeetingTopic</t>
   </si>
   <si>
-    <t>EHS M</t>
-  </si>
-  <si>
-    <t>MeetingVenue</t>
-  </si>
-  <si>
-    <t>Conference Hall Chavdi Unit</t>
-  </si>
-  <si>
-    <t>StartTime</t>
-  </si>
-  <si>
-    <t>EndTime</t>
-  </si>
-  <si>
-    <t>03:45 PM</t>
-  </si>
-  <si>
     <t>MeetingHost</t>
   </si>
   <si>
-    <t>gaurav</t>
-  </si>
-  <si>
-    <t>MeetingChairPerson</t>
-  </si>
-  <si>
-    <t>Mathew</t>
-  </si>
-  <si>
     <t>Meetingagenda</t>
   </si>
   <si>
     <t>Test Agenda</t>
   </si>
   <si>
-    <t>Ravi Kumar</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
@@ -97,12 +61,6 @@
     <t>C:\\Users\\GAURAV\\workspace\\Vguard_Automation\\Images\\CeilingFan.jpg</t>
   </si>
   <si>
-    <t>Meetingpoint</t>
-  </si>
-  <si>
-    <t>Test Meeting point</t>
-  </si>
-  <si>
     <t>AuthorizationactionCompleted</t>
   </si>
   <si>
@@ -121,15 +79,6 @@
     <t>Postpone</t>
   </si>
   <si>
-    <t>PostponeStartTime</t>
-  </si>
-  <si>
-    <t>PostponeEndTime</t>
-  </si>
-  <si>
-    <t>04:45 PM</t>
-  </si>
-  <si>
     <t>Test comment Postpone</t>
   </si>
   <si>
@@ -139,9 +88,6 @@
     <t>Authorizationactioncancelled</t>
   </si>
   <si>
-    <t>cancelled</t>
-  </si>
-  <si>
     <t>Test comment cancelled</t>
   </si>
   <si>
@@ -554,6 +500,42 @@
   </si>
   <si>
     <t>capa Test</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>https://gmrehsonlineuat.azurewebsites.net/Meeting/ScheduleMeeting</t>
+  </si>
+  <si>
+    <t>Department EHS Meeting</t>
+  </si>
+  <si>
+    <t>Chemistry</t>
+  </si>
+  <si>
+    <t>Quarterly meeting</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>DurationHH</t>
+  </si>
+  <si>
+    <t>DurationMM</t>
+  </si>
+  <si>
+    <t>Mercury</t>
+  </si>
+  <si>
+    <t>Meetingvenue</t>
+  </si>
+  <si>
+    <t>Cancel</t>
   </si>
 </sst>
 </file>
@@ -929,211 +911,196 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="2" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="28.42578125" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" customWidth="1"/>
-    <col min="7" max="7" width="28.5703125" customWidth="1"/>
-    <col min="8" max="8" width="32.5703125" customWidth="1"/>
-    <col min="9" max="9" width="27.7109375" customWidth="1"/>
-    <col min="10" max="11" width="27.5703125" customWidth="1"/>
-    <col min="12" max="12" width="26.85546875" customWidth="1"/>
-    <col min="13" max="13" width="69.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="73.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="66.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" customWidth="1"/>
+    <col min="6" max="8" width="26" customWidth="1"/>
+    <col min="9" max="9" width="28.42578125" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" customWidth="1"/>
+    <col min="11" max="12" width="27.5703125" customWidth="1"/>
+    <col min="13" max="13" width="26.85546875" customWidth="1"/>
+    <col min="14" max="14" width="69.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="73.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="29" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="33.28515625" customWidth="1"/>
     <col min="18" max="18" width="27.28515625" customWidth="1"/>
-    <col min="19" max="19" width="28.7109375" customWidth="1"/>
-    <col min="20" max="20" width="30.140625" customWidth="1"/>
-    <col min="21" max="21" width="28.5703125" customWidth="1"/>
-    <col min="22" max="22" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="28.140625" customWidth="1"/>
-    <col min="24" max="24" width="28" customWidth="1"/>
-    <col min="25" max="25" width="29.5703125" customWidth="1"/>
-    <col min="26" max="26" width="28.140625" customWidth="1"/>
-    <col min="27" max="27" width="27.28515625" customWidth="1"/>
-    <col min="28" max="28" width="25.85546875" customWidth="1"/>
-    <col min="29" max="29" width="30" customWidth="1"/>
-    <col min="30" max="31" width="29.28515625" customWidth="1"/>
-    <col min="32" max="32" width="30" customWidth="1"/>
-    <col min="33" max="33" width="26" customWidth="1"/>
-    <col min="34" max="34" width="29.85546875" customWidth="1"/>
-    <col min="35" max="35" width="27.5703125" customWidth="1"/>
-    <col min="36" max="36" width="17.140625" customWidth="1"/>
-    <col min="37" max="37" width="19.42578125" customWidth="1"/>
-    <col min="38" max="38" width="25" customWidth="1"/>
-    <col min="39" max="39" width="25.28515625" customWidth="1"/>
-    <col min="40" max="40" width="28" customWidth="1"/>
-    <col min="41" max="41" width="27.5703125" customWidth="1"/>
-    <col min="42" max="42" width="20.7109375" customWidth="1"/>
-    <col min="43" max="43" width="23.42578125" customWidth="1"/>
-    <col min="44" max="44" width="28.28515625" customWidth="1"/>
-    <col min="45" max="45" width="27.28515625" customWidth="1"/>
-    <col min="46" max="46" width="20.28515625" customWidth="1"/>
-    <col min="47" max="47" width="18.42578125" customWidth="1"/>
-    <col min="48" max="48" width="16.140625" customWidth="1"/>
-    <col min="49" max="49" width="17.28515625" customWidth="1"/>
-    <col min="50" max="50" width="20" customWidth="1"/>
-    <col min="51" max="51" width="22" customWidth="1"/>
-    <col min="52" max="52" width="31.42578125" customWidth="1"/>
-    <col min="53" max="53" width="25.85546875" customWidth="1"/>
-    <col min="54" max="54" width="37" customWidth="1"/>
-    <col min="55" max="55" width="21.5703125" customWidth="1"/>
-    <col min="56" max="56" width="22" customWidth="1"/>
-    <col min="57" max="57" width="28.140625" customWidth="1"/>
-    <col min="58" max="58" width="28.42578125" customWidth="1"/>
+    <col min="19" max="19" width="28.5703125" customWidth="1"/>
+    <col min="20" max="20" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="28.140625" customWidth="1"/>
+    <col min="22" max="22" width="28" customWidth="1"/>
+    <col min="23" max="23" width="29.5703125" customWidth="1"/>
+    <col min="24" max="24" width="28.140625" customWidth="1"/>
+    <col min="25" max="25" width="27.28515625" customWidth="1"/>
+    <col min="26" max="26" width="25.85546875" customWidth="1"/>
+    <col min="27" max="27" width="30" customWidth="1"/>
+    <col min="28" max="29" width="29.28515625" customWidth="1"/>
+    <col min="30" max="30" width="30" customWidth="1"/>
+    <col min="31" max="31" width="26" customWidth="1"/>
+    <col min="32" max="32" width="29.85546875" customWidth="1"/>
+    <col min="33" max="33" width="27.5703125" customWidth="1"/>
+    <col min="34" max="34" width="17.140625" customWidth="1"/>
+    <col min="35" max="35" width="19.42578125" customWidth="1"/>
+    <col min="36" max="36" width="25" customWidth="1"/>
+    <col min="37" max="37" width="25.28515625" customWidth="1"/>
+    <col min="38" max="38" width="28" customWidth="1"/>
+    <col min="39" max="39" width="27.5703125" customWidth="1"/>
+    <col min="40" max="40" width="20.7109375" customWidth="1"/>
+    <col min="41" max="41" width="23.42578125" customWidth="1"/>
+    <col min="42" max="42" width="28.28515625" customWidth="1"/>
+    <col min="43" max="43" width="27.28515625" customWidth="1"/>
+    <col min="44" max="44" width="20.28515625" customWidth="1"/>
+    <col min="45" max="45" width="18.42578125" customWidth="1"/>
+    <col min="46" max="46" width="16.140625" customWidth="1"/>
+    <col min="47" max="47" width="17.28515625" customWidth="1"/>
+    <col min="48" max="48" width="20" customWidth="1"/>
+    <col min="49" max="49" width="22" customWidth="1"/>
+    <col min="50" max="50" width="31.42578125" customWidth="1"/>
+    <col min="51" max="51" width="25.85546875" customWidth="1"/>
+    <col min="52" max="52" width="37" customWidth="1"/>
+    <col min="53" max="53" width="21.5703125" customWidth="1"/>
+    <col min="54" max="54" width="22" customWidth="1"/>
+    <col min="55" max="55" width="28.140625" customWidth="1"/>
+    <col min="56" max="56" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="L1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="P1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="K2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="P2" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="Q2" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="R2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S2" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" s="2" t="s">
+      <c r="T2" t="s">
+        <v>172</v>
+      </c>
+      <c r="U2" t="s">
         <v>23</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="U2" t="s">
-        <v>37</v>
-      </c>
-      <c r="V2" t="s">
-        <v>40</v>
-      </c>
-      <c r="W2" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1146,7 +1113,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
+    <sheetView topLeftCell="AS1" workbookViewId="0">
       <selection activeCell="AW1" sqref="AW1"/>
     </sheetView>
   </sheetViews>
@@ -1200,300 +1167,300 @@
   <sheetData>
     <row r="1" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="P1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="S1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="N1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="X1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AW1" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AT1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AU1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AV1" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="AW1" s="2" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="E2" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="F2" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" t="s">
         <v>48</v>
       </c>
-      <c r="H2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="R2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" t="s">
+        <v>138</v>
+      </c>
+      <c r="T2" t="s">
+        <v>0</v>
+      </c>
+      <c r="U2" t="s">
+        <v>139</v>
+      </c>
+      <c r="V2" t="s">
+        <v>140</v>
+      </c>
+      <c r="W2" t="s">
+        <v>140</v>
+      </c>
+      <c r="X2" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="s">
         <v>52</v>
       </c>
-      <c r="J2" t="s">
+      <c r="AF2" t="s">
         <v>54</v>
       </c>
-      <c r="K2" t="s">
-        <v>56</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="M2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="AG2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>160</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU2" t="s">
         <v>61</v>
       </c>
-      <c r="O2" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>66</v>
-      </c>
-      <c r="R2" t="s">
-        <v>67</v>
-      </c>
-      <c r="S2" t="s">
-        <v>156</v>
-      </c>
-      <c r="T2" t="s">
-        <v>1</v>
-      </c>
-      <c r="U2" t="s">
-        <v>157</v>
-      </c>
-      <c r="V2" t="s">
-        <v>158</v>
-      </c>
-      <c r="W2" t="s">
-        <v>158</v>
-      </c>
-      <c r="X2" t="s">
-        <v>128</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>161</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>161</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>165</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>165</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>139</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>139</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>144</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>146</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>146</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>148</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>178</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>99</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>79</v>
-      </c>
       <c r="AV2" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="AW2" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1547,198 +1514,198 @@
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="P1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="S1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="F2" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="G2" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="I2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>81</v>
+      </c>
+      <c r="R2" t="s">
+        <v>61</v>
+      </c>
+      <c r="S2" t="s">
+        <v>83</v>
+      </c>
+      <c r="T2" t="s">
+        <v>0</v>
+      </c>
+      <c r="U2" t="s">
+        <v>85</v>
+      </c>
+      <c r="V2" t="s">
+        <v>87</v>
+      </c>
+      <c r="W2" t="s">
+        <v>89</v>
+      </c>
+      <c r="X2" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB2" t="s">
         <v>96</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="K2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" t="s">
-        <v>66</v>
-      </c>
-      <c r="O2" t="s">
-        <v>67</v>
-      </c>
-      <c r="P2" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>99</v>
-      </c>
-      <c r="R2" t="s">
-        <v>79</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="AC2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="s">
         <v>101</v>
       </c>
-      <c r="T2" t="s">
-        <v>1</v>
-      </c>
-      <c r="U2" t="s">
-        <v>103</v>
-      </c>
-      <c r="V2" t="s">
-        <v>105</v>
-      </c>
-      <c r="W2" t="s">
-        <v>107</v>
-      </c>
-      <c r="X2" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>119</v>
-      </c>
       <c r="AF2" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1788,204 +1755,204 @@
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="X1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC1" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="O1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="S1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF1" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="E2" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="F2" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="G2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" t="s">
+        <v>110</v>
+      </c>
+      <c r="O2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>56</v>
+      </c>
+      <c r="R2" t="s">
+        <v>56</v>
+      </c>
+      <c r="S2" t="s">
+        <v>81</v>
+      </c>
+      <c r="T2" t="s">
+        <v>70</v>
+      </c>
+      <c r="U2" t="s">
+        <v>0</v>
+      </c>
+      <c r="V2" t="s">
+        <v>118</v>
+      </c>
+      <c r="W2" t="s">
+        <v>118</v>
+      </c>
+      <c r="X2" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z2" t="s">
         <v>126</v>
       </c>
-      <c r="H2" t="s">
-        <v>127</v>
-      </c>
-      <c r="I2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" t="s">
-        <v>66</v>
-      </c>
-      <c r="M2" t="s">
-        <v>67</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="AA2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="s">
         <v>128</v>
       </c>
-      <c r="O2" t="s">
-        <v>1</v>
-      </c>
-      <c r="P2" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>74</v>
-      </c>
-      <c r="R2" t="s">
-        <v>74</v>
-      </c>
-      <c r="S2" t="s">
-        <v>99</v>
-      </c>
-      <c r="T2" t="s">
-        <v>88</v>
-      </c>
-      <c r="U2" t="s">
-        <v>1</v>
-      </c>
-      <c r="V2" t="s">
-        <v>136</v>
-      </c>
-      <c r="W2" t="s">
-        <v>136</v>
-      </c>
-      <c r="X2" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>139</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>144</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>146</v>
-      </c>
       <c r="AC2" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="AD2" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="AE2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF2" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="AG2" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
